--- a/_files/teste_projecao_gastos.xlsx
+++ b/_files/teste_projecao_gastos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\pcmauro\_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zeluzjunior\PycharmProjects\teste_visual\_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9397160A-2702-4B9A-816A-21502DB9850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBE7269-1E52-4045-A838-E1BC5284FDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{093689EF-D701-4890-B8A9-8BD8B50DC7E2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{093689EF-D701-4890-B8A9-8BD8B50DC7E2}"/>
   </bookViews>
   <sheets>
     <sheet name="DADOS" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="27" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="96">
   <si>
     <t xml:space="preserve">SETOR </t>
   </si>
@@ -347,9 +347,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="[$R$-416]\ #,##0.00"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -481,7 +482,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -538,24 +539,176 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="106">
+  <dxfs count="41">
+    <dxf>
+      <border>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$R$-416]\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
@@ -665,354 +818,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1164,48 +969,6 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:numFmt formatCode="#,##0.00\ &quot;€&quot;" sourceLinked="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
-            </a:p>
-          </c:txPr>
-        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -1219,7 +982,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>DASHBOARD!$D$5</c:f>
+              <c:f>DASHBOARD!$D$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1296,106 +1059,63 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>DASHBOARD!$C$6:$C$23</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>-</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>FEVEREIRO / 2026</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>JANEIRO / 2026</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>MARÇO / 2026</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>NOVEMBRO / 2025</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>OUTUBRO / 2025</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>DEZEMBRO / 2025</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>DEZEMBRO / 2025</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>FEVEREIRO / 2026</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>JANEIRO / 2026</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>NOVEMBRO / 2025</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>(vazio)</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>-</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>CLEITON</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>JOSÉ</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>RHUAN</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>(vazio)</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:strRef>
+              <c:f>DASHBOARD!$C$10:$C$18</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DEZEMBRO / 2025</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FEVEREIRO / 2026</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>JANEIRO / 2026</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MARÇO / 2026</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NOVEMBRO / 2025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>OUTUBRO / 2025</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(vazio)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DASHBOARD!$D$6:$D$23</c:f>
+              <c:f>DASHBOARD!$D$10:$D$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:formatCode>[$R$-416]\ #,##0.00</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150000</c:v>
+                  <c:v>59377.17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>130000</c:v>
+                  <c:v>170706</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>154696</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>270000</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>32191.75</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>39994.630000000005</c:v>
+                  <c:v>34435.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42877.17</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20706</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>24696</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2244</c:v>
+                  <c:v>39994.630000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1491,7 +1211,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="[$R$-416]\ #,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2172,16 +1892,89 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88B3026C-9652-4D1F-A187-52F15AD4DAE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10125075" cy="4029075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14475,11 +14268,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D5662E1A-D9A7-4B7F-87EB-71919FB939AC}" name="Tabela dinâmica1" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="C5:D23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D5662E1A-D9A7-4B7F-87EB-71919FB939AC}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="C9:D18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField showAll="0">
       <items count="6">
         <item x="4"/>
         <item x="0"/>
@@ -14517,60 +14310,32 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
-  <rowFields count="2">
-    <field x="1"/>
+  <rowFields count="1">
     <field x="6"/>
   </rowFields>
-  <rowItems count="18">
+  <rowItems count="9">
     <i>
-      <x/>
-    </i>
-    <i r="1">
       <x/>
     </i>
     <i>
       <x v="1"/>
     </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
     <i>
       <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
     </i>
     <i>
       <x v="3"/>
     </i>
-    <i r="1">
-      <x v="1"/>
+    <i>
+      <x v="4"/>
     </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
+    <i>
       <x v="5"/>
     </i>
     <i>
-      <x v="4"/>
+      <x v="6"/>
     </i>
-    <i r="1">
+    <i>
       <x v="7"/>
     </i>
     <i t="grand">
@@ -14581,230 +14346,69 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Soma de VALOR TOTAL" fld="5" baseField="1" baseItem="0"/>
+    <dataField name="Soma de VALOR TOTAL" fld="5" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
-  <formats count="22">
-    <format dxfId="105">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+  <formats count="13">
+    <format dxfId="13">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="14">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="15">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="16">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="17">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="18">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="6">
+      <pivotArea outline="0" fieldPosition="0">
         <references count="1">
-          <reference field="1" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="94">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="1">
+          <reference field="4294967294" count="1">
             <x v="0"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="92">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1">
-            <x v="0"/>
-          </reference>
+    <format dxfId="5">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="4">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="90">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+    <format dxfId="3">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="2">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
-          <reference field="1" count="1">
-            <x v="1"/>
-          </reference>
+          <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="88">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="6" count="5">
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-            <x v="5"/>
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="86">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="1">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="84">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="6" count="1">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="82">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="80">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="6" count="4">
-            <x v="1"/>
-            <x v="2"/>
-            <x v="3"/>
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="78">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="1">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="46">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="44">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="32">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="31">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="30">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="29">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="27">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="6" count="5">
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-            <x v="5"/>
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="26">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="6" count="1">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="25">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="6" count="4">
-            <x v="1"/>
-            <x v="2"/>
-            <x v="3"/>
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="24">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="6" count="1">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="23">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
   </formats>
-  <chartFormats count="2">
+  <chartFormats count="1">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -15141,8 +14745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18609D9C-E791-48E2-AC72-7D0345E1E97F}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15385,15 +14989,16 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4816FC4B-CBAA-4EA2-9E15-76188666193F}">
-  <dimension ref="A4:AL24"/>
+  <dimension ref="A8:AL28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15401,209 +15006,175 @@
     <col min="1" max="1" width="4.85546875" style="21" customWidth="1"/>
     <col min="2" max="2" width="2.7109375" style="21" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" style="21" customWidth="1"/>
     <col min="5" max="5" width="3" style="21" customWidth="1"/>
     <col min="6" max="7" width="11.42578125" style="21" customWidth="1"/>
     <col min="8" max="38" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="27"/>
-      <c r="C5" s="22" t="s">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="22"/>
+      <c r="C9" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D9" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="27"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="27"/>
-      <c r="C6" s="23" t="s">
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="22"/>
+      <c r="C10" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D10" s="26">
         <v>0</v>
       </c>
-      <c r="E6" s="28"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="27"/>
-      <c r="C7" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="24">
-        <v>0</v>
-      </c>
-      <c r="E7" s="28"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="27"/>
-      <c r="C8" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="24">
-        <v>622186.38</v>
-      </c>
-      <c r="E8" s="28"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="27"/>
-      <c r="C9" s="25" t="s">
+      <c r="E10" s="23"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="22"/>
+      <c r="C11" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="26">
+        <v>59377.17</v>
+      </c>
+      <c r="E11" s="23"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="22"/>
+      <c r="C12" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="24">
-        <v>150000</v>
-      </c>
-      <c r="E9" s="28"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="27"/>
-      <c r="C10" s="25" t="s">
+      <c r="D12" s="26">
+        <v>170706</v>
+      </c>
+      <c r="E12" s="23"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="22"/>
+      <c r="C13" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="24">
-        <v>130000</v>
-      </c>
-      <c r="E10" s="28"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="27"/>
-      <c r="C11" s="25" t="s">
+      <c r="D13" s="26">
+        <v>154696</v>
+      </c>
+      <c r="E13" s="23"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="22"/>
+      <c r="C14" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D14" s="26">
         <v>270000</v>
       </c>
-      <c r="E11" s="28"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="27"/>
-      <c r="C12" s="25" t="s">
+      <c r="E14" s="23"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="22"/>
+      <c r="C15" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="24">
-        <v>32191.75</v>
-      </c>
-      <c r="E12" s="28"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="27"/>
-      <c r="C13" s="25" t="s">
+      <c r="D15" s="26">
+        <v>34435.75</v>
+      </c>
+      <c r="E15" s="23"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="22"/>
+      <c r="C16" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D16" s="26">
         <v>39994.630000000005</v>
       </c>
-      <c r="E13" s="28"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="27"/>
-      <c r="C14" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="24">
-        <v>16500</v>
-      </c>
-      <c r="E14" s="28"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="27"/>
-      <c r="C15" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="24">
-        <v>16500</v>
-      </c>
-      <c r="E15" s="28"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="27"/>
-      <c r="C16" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="24">
-        <v>90523.17</v>
-      </c>
-      <c r="E16" s="28"/>
+      <c r="E16" s="23"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="27"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="24">
-        <v>42877.17</v>
-      </c>
-      <c r="E17" s="28"/>
+        <v>93</v>
+      </c>
+      <c r="D17" s="26"/>
+      <c r="E17" s="23"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="27"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="24">
-        <v>20706</v>
-      </c>
-      <c r="E18" s="28"/>
+        <v>94</v>
+      </c>
+      <c r="D18" s="26">
+        <v>729209.54999999993</v>
+      </c>
+      <c r="E18" s="23"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="27"/>
-      <c r="C19" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="24">
-        <v>24696</v>
-      </c>
-      <c r="E19" s="28"/>
+      <c r="B19" s="22"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19" s="23"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="27"/>
-      <c r="C20" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="24">
-        <v>2244</v>
-      </c>
-      <c r="E20" s="28"/>
+      <c r="B20" s="22"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20" s="23"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="27"/>
-      <c r="C21" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="28"/>
+      <c r="B21" s="22"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21" s="23"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="27"/>
-      <c r="C22" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="29"/>
+      <c r="B22" s="22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22" s="23"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="27"/>
-      <c r="C23" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" s="24">
-        <v>729209.55</v>
-      </c>
-      <c r="E23" s="28"/>
+      <c r="B23" s="22"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23" s="23"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
+      <c r="B24" s="22"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24" s="23"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="22"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25" s="23"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="22"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26" s="22"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="22"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27" s="23"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -15615,7 +15186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76ED07C-DAA3-4D41-A63E-9156D961F4A2}">
   <dimension ref="A1:Q641"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
